--- a/SuperCom.Test/测试用例/测试用例.xlsx
+++ b/SuperCom.Test/测试用例/测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>用例编号</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.点击排序、刷新
 2.在任意配对的串口上点击连接
 3.点击编辑命令-左上角新增-修改名称为</t>
@@ -112,12 +118,6 @@
 2.重启后，配置会被保存</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>重启后，字体、颜色未恢复</t>
-  </si>
-  <si>
     <t>测试串口设置</t>
   </si>
   <si>
@@ -132,11 +132,6 @@
     <t>1.所有功能正常</t>
   </si>
   <si>
-    <t>1.新增波特率没有应用到串口设置里
-2.设置里新增、删除波特率导致已选择的波特率被切换了
-3.更多串口设置无效</t>
-  </si>
-  <si>
     <t>测试设置</t>
   </si>
   <si>
@@ -148,9 +143,6 @@
   </si>
   <si>
     <t>1.所有设置项正常</t>
-  </si>
-  <si>
-    <t>1.日志目录新增了一个 %h 后，没有生效</t>
   </si>
   <si>
     <t>语法高亮</t>
@@ -287,10 +279,6 @@
 5.重启后菜单正常</t>
   </si>
   <si>
-    <t>固定的 tab，删除后再次打开还是固定
-备注超长问题</t>
-  </si>
-  <si>
     <t>虚拟串口模拟</t>
   </si>
   <si>
@@ -307,7 +295,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,13 +315,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -824,48 +805,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,97 +859,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,7 +1346,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="7"/>
@@ -1453,7 +1434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="73" customHeight="1" spans="1:8">
+    <row r="4" ht="73" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1472,14 +1453,8 @@
       <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="5" ht="111" customHeight="1" spans="1:8">
+    <row r="5" ht="111" customHeight="1" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1487,25 +1462,22 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" ht="94" customHeight="1" spans="1:8">
+    <row r="6" ht="94" customHeight="1" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1513,22 +1485,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="217" customHeight="1" spans="1:7">
@@ -1539,16 +1508,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1562,16 +1531,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1585,22 +1554,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="82" customHeight="1" spans="1:8">
+    <row r="10" ht="82" customHeight="1" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1608,22 +1577,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:7">
@@ -1634,16 +1600,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1656,14 +1622,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8 G9 G10 G11 G2:G7 G12:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G8 G11 G2:G4 G5:G6 G9:G10 G12:G1048576">
       <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D2:D10 D12:D1048576">
+      <formula1>"基本功能,命令发送,语法高亮,插件,更新,快捷键,设置,其它"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D2:D10 D12:D1048576">
-      <formula1>"基本功能,命令发送,语法高亮,插件,更新,快捷键,设置,其它"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
